--- a/React実装方式.xlsx
+++ b/React実装方式.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamu\my-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B023AD4C-0E8A-4FAC-892D-70010BA23006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6015E580-F36E-4C92-8E29-5929CF1D7996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{8E459E9E-7550-43DA-8CCA-9F758EC217A9}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
   <si>
     <t>目的</t>
     <rPh sb="0" eb="2">
@@ -2081,6 +2081,13 @@
   <si>
     <t>npm install react-router-dom</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/kamu0907/my-app.git</t>
   </si>
 </sst>
 </file>
@@ -3063,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BB5599-91CF-48C1-93EF-2FF408BBC2E5}">
-  <dimension ref="B1:C14"/>
+  <dimension ref="B1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3076,39 +3083,49 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
         <v>93</v>
       </c>
     </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>94</v>
+      <c r="C6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="C9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="C14" t="s">
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/React実装方式.xlsx
+++ b/React実装方式.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamu\my-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6015E580-F36E-4C92-8E29-5929CF1D7996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2D5292-2341-4F35-8E40-842E56F3F65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{8E459E9E-7550-43DA-8CCA-9F758EC217A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{8E459E9E-7550-43DA-8CCA-9F758EC217A9}"/>
   </bookViews>
   <sheets>
     <sheet name="概要・目的" sheetId="1" r:id="rId1"/>
     <sheet name="Reactについて(別に読まなくてもいい)" sheetId="2" r:id="rId2"/>
     <sheet name="1. クラスコンポーネント" sheetId="3" r:id="rId3"/>
     <sheet name="2. ファンクションコンポーネント" sheetId="4" r:id="rId4"/>
-    <sheet name="サンプル→" sheetId="6" r:id="rId5"/>
-    <sheet name="画面遷移" sheetId="7" r:id="rId6"/>
-    <sheet name="useState" sheetId="5" r:id="rId7"/>
+    <sheet name="導入～Create React App～" sheetId="8" r:id="rId5"/>
+    <sheet name="サンプル→" sheetId="6" r:id="rId6"/>
+    <sheet name="画面遷移(React Router)" sheetId="7" r:id="rId7"/>
+    <sheet name="useState" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
   <si>
     <t>目的</t>
     <rPh sb="0" eb="2">
@@ -2088,6 +2089,31 @@
   </si>
   <si>
     <t>https://github.com/kamu0907/my-app.git</t>
+  </si>
+  <si>
+    <t>Create React App のインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Node.js のインストール後、地道に React 環境を構築するのはとても大変です。Webpack や Babel もしくは TypeScript などの知識に精通している必要があります。</t>
+  </si>
+  <si>
+    <t>Create React App はそういった難しい設定をしなくても簡単に React を導入できるツールです。より細かい設定をしたい場合は Create React App を使わずに直接 Webpack を設定した方が早い場合もありますが趣味程度に使ってみるくらいなら Create React App でも十分です。</t>
+  </si>
+  <si>
+    <t>以下3つのコマンドをターミナルに入力するだけで何も考えずに React 環境が完成してしまいます。</t>
+  </si>
+  <si>
+    <t>npx create-react-app my-app</t>
+  </si>
+  <si>
+    <t>cd my-app</t>
+  </si>
+  <si>
+    <t>npm start</t>
+  </si>
+  <si>
+    <t>以下のような画面が立ち上がれば成功です。</t>
   </si>
 </sst>
 </file>
@@ -2289,6 +2315,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>658423</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>181606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2CBEAE5-809D-CC85-DA49-1F7FA95A0678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="3886200"/>
+          <a:ext cx="8583223" cy="4525006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2611,7 +2686,7 @@
   <dimension ref="B3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2646,7 +2721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F06643D-AA14-4F91-BF7C-D3DEA255A0F7}">
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -2722,7 +2797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435F5798-EFF6-4E43-86C9-2653C3DB228A}">
   <dimension ref="B2:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -3056,6 +3131,63 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF699BDE-D979-46B8-9685-BE5FF0C14CB2}">
+  <dimension ref="B2:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB81DA6-E4A3-49E5-8757-15061FC3A145}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3068,12 +3200,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BB5599-91CF-48C1-93EF-2FF408BBC2E5}">
   <dimension ref="B1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3134,12 +3266,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783949A3-7A9B-41BE-A84C-405881AEC09B}">
   <dimension ref="B2:B44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
